--- a/ApolloQA/Data/RatingManual/SC/VA00059.SizeType_TerritoryFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/SC/VA00059.SizeType_TerritoryFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00059.SizeType_TerritoryFactors" sheetId="1" r:id="R99f4c65e335b4e32"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00059.SizeType_TerritoryFactors" sheetId="1" r:id="R8134214c11ac41ce"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -973,6 +973,23 @@
         <x:v>20,000</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0120</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>All Other</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>20,000</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>61</x:v>
       </x:c>
       <x:c t="str">
@@ -1908,6 +1925,23 @@
         <x:v>45,000</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9991</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>All Other</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>20,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>45,000</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>71</x:v>
       </x:c>
       <x:c t="str">
@@ -2843,6 +2877,23 @@
         <x:v>+</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9799</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>All Other</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>45,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>82</x:v>
       </x:c>
       <x:c t="str">
@@ -3778,6 +3829,23 @@
         <x:v>+</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9744</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>SemiTrailer</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>92</x:v>
       </x:c>
       <x:c t="str">
@@ -4713,6 +4781,23 @@
         <x:v>+</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0130</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Tractor</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>45,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>55</x:v>
       </x:c>
       <x:c t="str">
@@ -5648,6 +5733,23 @@
         <x:v>2,000</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0416</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Trailer</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2,000</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>65</x:v>
       </x:c>
       <x:c t="str">
@@ -6570,6 +6672,23 @@
       </x:c>
       <x:c t="str">
         <x:v>0.9926</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Trailer</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0378</x:v>
       </x:c>
     </x:row>
     <x:row>
